--- a/config_3.23/fish_3d_yutu_random_5.xlsx
+++ b/config_3.23/fish_3d_yutu_random_5.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1626,10 +1626,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J18" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,10 +1654,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J19" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1682,10 +1682,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J20" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1710,10 +1710,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J21" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J22" s="26">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
